--- a/johsys24/sivut/tyoajanseuranta.xlsx
+++ b/johsys24/sivut/tyoajanseuranta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eerikki.maula\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\git\eermau.github.io\johsys24\sivut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEBEC5F-843C-432C-BD38-6A5423CD5C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD00FF23-1990-48CD-ABAA-A5B1E2831EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="3600" windowWidth="18960" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jäsenA" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +131,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -330,6 +336,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -910,6 +932,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D844-4F30-8C00-D3958FCFB632}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -925,6 +952,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D844-4F30-8C00-D3958FCFB632}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -940,6 +972,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D844-4F30-8C00-D3958FCFB632}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2674,7 +2711,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,7 +2742,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45377</v>
+        <v>45376</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -2721,7 +2758,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
-        <v>45378</v>
+        <v>45377</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -2737,7 +2774,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A6" si="0">A3+1</f>
-        <v>45379</v>
+        <v>45378</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -2753,7 +2790,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>45380</v>
+        <v>45379</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -2761,33 +2798,33 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="26">
         <f t="shared" si="0"/>
-        <v>45381</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>45380</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="30">
         <f>A2+7</f>
-        <v>45384</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>45383</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A56" si="1">A3+7</f>
-        <v>45385</v>
+        <f t="shared" ref="A8:A51" si="1">A3+7</f>
+        <v>45384</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -2799,7 +2836,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>45386</v>
+        <v>45385</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -2811,7 +2848,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>45387</v>
+        <v>45386</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -2823,7 +2860,7 @@
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="1"/>
-        <v>45388</v>
+        <v>45387</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -2835,7 +2872,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f>A7+7</f>
-        <v>45391</v>
+        <v>45390</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -2847,7 +2884,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>45392</v>
+        <v>45391</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
@@ -2859,7 +2896,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
-        <v>45393</v>
+        <v>45392</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -2871,7 +2908,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
-        <v>45394</v>
+        <v>45393</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
@@ -2883,7 +2920,7 @@
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
-        <v>45395</v>
+        <v>45394</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
@@ -2895,7 +2932,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f>A12+7</f>
-        <v>45398</v>
+        <v>45397</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
@@ -2907,7 +2944,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
-        <v>45399</v>
+        <v>45398</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -2919,7 +2956,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
-        <v>45400</v>
+        <v>45399</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -2931,7 +2968,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -2943,7 +2980,7 @@
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -2955,7 +2992,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f>A17+7</f>
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>5</v>
@@ -2967,7 +3004,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
@@ -2979,7 +3016,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
-        <v>45407</v>
+        <v>45406</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -2991,7 +3028,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -3003,7 +3040,7 @@
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f t="shared" si="1"/>
-        <v>45409</v>
+        <v>45408</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>9</v>
@@ -3015,7 +3052,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f>A22+7</f>
-        <v>45412</v>
+        <v>45411</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>5</v>
@@ -3027,7 +3064,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
@@ -3039,7 +3076,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
-        <v>45414</v>
+        <v>45413</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -3051,7 +3088,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
@@ -3063,7 +3100,7 @@
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <f t="shared" si="1"/>
-        <v>45416</v>
+        <v>45415</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>9</v>
@@ -3075,7 +3112,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f>A27+7</f>
-        <v>45419</v>
+        <v>45418</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>5</v>
@@ -3087,7 +3124,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
@@ -3099,7 +3136,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
-        <v>45421</v>
+        <v>45420</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -3111,7 +3148,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
-        <v>45422</v>
+        <v>45421</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>8</v>
@@ -3123,7 +3160,7 @@
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <f t="shared" si="1"/>
-        <v>45423</v>
+        <v>45422</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>9</v>
@@ -3135,7 +3172,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f>A32+7</f>
-        <v>45426</v>
+        <v>45425</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>5</v>
@@ -3147,7 +3184,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
-        <v>45427</v>
+        <v>45426</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -3159,7 +3196,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
-        <v>45428</v>
+        <v>45427</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -3171,7 +3208,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
-        <v>45429</v>
+        <v>45428</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>8</v>
@@ -3183,7 +3220,7 @@
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <f t="shared" si="1"/>
-        <v>45430</v>
+        <v>45429</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>9</v>
@@ -3195,7 +3232,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f>A37+7</f>
-        <v>45433</v>
+        <v>45432</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>5</v>
@@ -3207,7 +3244,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
-        <v>45434</v>
+        <v>45433</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
@@ -3219,7 +3256,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
-        <v>45435</v>
+        <v>45434</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
@@ -3231,7 +3268,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
-        <v>45436</v>
+        <v>45435</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -3243,7 +3280,7 @@
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <f t="shared" si="1"/>
-        <v>45437</v>
+        <v>45436</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>9</v>
@@ -3255,7 +3292,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>A42+7</f>
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>5</v>
@@ -3267,7 +3304,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
@@ -3279,7 +3316,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
@@ -3291,7 +3328,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
-        <v>45443</v>
+        <v>45442</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>8</v>
@@ -3303,7 +3340,7 @@
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <f t="shared" si="1"/>
-        <v>45444</v>
+        <v>45443</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>9</v>
@@ -3324,7 +3361,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A6" sqref="A6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,7 +3369,7 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3354,7 +3391,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45377</v>
+        <v>45376</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -3370,7 +3407,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
-        <v>45378</v>
+        <v>45377</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -3386,7 +3423,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A6" si="0">A3+1</f>
-        <v>45379</v>
+        <v>45378</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -3402,7 +3439,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>45380</v>
+        <v>45379</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -3410,33 +3447,33 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="26">
         <f t="shared" si="0"/>
-        <v>45381</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>45380</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="30">
         <f>A2+7</f>
-        <v>45384</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>45383</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" ref="A8:A51" si="1">A3+7</f>
-        <v>45385</v>
+        <v>45384</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -3448,7 +3485,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>45386</v>
+        <v>45385</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -3460,7 +3497,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>45387</v>
+        <v>45386</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -3472,7 +3509,7 @@
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="1"/>
-        <v>45388</v>
+        <v>45387</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -3484,7 +3521,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f>A7+7</f>
-        <v>45391</v>
+        <v>45390</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -3496,7 +3533,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>45392</v>
+        <v>45391</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
@@ -3508,7 +3545,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
-        <v>45393</v>
+        <v>45392</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -3520,7 +3557,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
-        <v>45394</v>
+        <v>45393</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
@@ -3532,7 +3569,7 @@
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
-        <v>45395</v>
+        <v>45394</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
@@ -3544,7 +3581,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f>A12+7</f>
-        <v>45398</v>
+        <v>45397</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
@@ -3556,7 +3593,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
-        <v>45399</v>
+        <v>45398</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -3568,7 +3605,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
-        <v>45400</v>
+        <v>45399</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -3580,7 +3617,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -3592,7 +3629,7 @@
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -3604,7 +3641,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f>A17+7</f>
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>5</v>
@@ -3616,7 +3653,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
@@ -3628,7 +3665,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
-        <v>45407</v>
+        <v>45406</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -3640,7 +3677,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -3652,7 +3689,7 @@
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f t="shared" si="1"/>
-        <v>45409</v>
+        <v>45408</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>9</v>
@@ -3664,7 +3701,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f>A22+7</f>
-        <v>45412</v>
+        <v>45411</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>5</v>
@@ -3676,7 +3713,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
@@ -3688,7 +3725,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
-        <v>45414</v>
+        <v>45413</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -3700,7 +3737,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
@@ -3712,7 +3749,7 @@
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <f t="shared" si="1"/>
-        <v>45416</v>
+        <v>45415</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>9</v>
@@ -3724,7 +3761,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f>A27+7</f>
-        <v>45419</v>
+        <v>45418</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>5</v>
@@ -3736,7 +3773,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
@@ -3748,7 +3785,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
-        <v>45421</v>
+        <v>45420</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -3760,7 +3797,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
-        <v>45422</v>
+        <v>45421</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>8</v>
@@ -3772,7 +3809,7 @@
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <f t="shared" si="1"/>
-        <v>45423</v>
+        <v>45422</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>9</v>
@@ -3784,7 +3821,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f>A32+7</f>
-        <v>45426</v>
+        <v>45425</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>5</v>
@@ -3796,7 +3833,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
-        <v>45427</v>
+        <v>45426</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -3808,7 +3845,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
-        <v>45428</v>
+        <v>45427</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -3820,7 +3857,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
-        <v>45429</v>
+        <v>45428</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>8</v>
@@ -3832,7 +3869,7 @@
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <f t="shared" si="1"/>
-        <v>45430</v>
+        <v>45429</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>9</v>
@@ -3844,7 +3881,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f>A37+7</f>
-        <v>45433</v>
+        <v>45432</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>5</v>
@@ -3856,7 +3893,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
-        <v>45434</v>
+        <v>45433</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
@@ -3868,7 +3905,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
-        <v>45435</v>
+        <v>45434</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
@@ -3880,7 +3917,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
-        <v>45436</v>
+        <v>45435</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -3892,7 +3929,7 @@
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <f t="shared" si="1"/>
-        <v>45437</v>
+        <v>45436</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>9</v>
@@ -3904,7 +3941,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>A42+7</f>
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>5</v>
@@ -3916,7 +3953,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
@@ -3928,7 +3965,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
@@ -3940,7 +3977,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
-        <v>45443</v>
+        <v>45442</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>8</v>
@@ -3952,7 +3989,7 @@
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <f t="shared" si="1"/>
-        <v>45444</v>
+        <v>45443</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>9</v>
@@ -3971,12 +4008,15 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3998,7 +4038,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45377</v>
+        <v>45376</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -4014,7 +4054,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
-        <v>45378</v>
+        <v>45377</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -4030,7 +4070,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A6" si="0">A3+1</f>
-        <v>45379</v>
+        <v>45378</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -4046,7 +4086,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>45380</v>
+        <v>45379</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -4054,33 +4094,33 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="26">
         <f t="shared" si="0"/>
-        <v>45381</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>45380</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="30">
         <f>A2+7</f>
-        <v>45384</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>45383</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" ref="A8:A51" si="1">A3+7</f>
-        <v>45385</v>
+        <v>45384</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -4092,7 +4132,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>45386</v>
+        <v>45385</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -4104,7 +4144,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>45387</v>
+        <v>45386</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -4116,7 +4156,7 @@
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="1"/>
-        <v>45388</v>
+        <v>45387</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -4128,7 +4168,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f>A7+7</f>
-        <v>45391</v>
+        <v>45390</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -4140,7 +4180,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>45392</v>
+        <v>45391</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
@@ -4152,7 +4192,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
-        <v>45393</v>
+        <v>45392</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -4164,7 +4204,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
-        <v>45394</v>
+        <v>45393</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
@@ -4176,7 +4216,7 @@
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
-        <v>45395</v>
+        <v>45394</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
@@ -4188,7 +4228,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f>A12+7</f>
-        <v>45398</v>
+        <v>45397</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
@@ -4200,7 +4240,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
-        <v>45399</v>
+        <v>45398</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -4212,7 +4252,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
-        <v>45400</v>
+        <v>45399</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -4224,7 +4264,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -4236,7 +4276,7 @@
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -4248,7 +4288,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f>A17+7</f>
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>5</v>
@@ -4260,7 +4300,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
@@ -4272,7 +4312,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
-        <v>45407</v>
+        <v>45406</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -4284,7 +4324,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -4296,7 +4336,7 @@
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f t="shared" si="1"/>
-        <v>45409</v>
+        <v>45408</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>9</v>
@@ -4308,7 +4348,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f>A22+7</f>
-        <v>45412</v>
+        <v>45411</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>5</v>
@@ -4320,7 +4360,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
@@ -4332,7 +4372,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
-        <v>45414</v>
+        <v>45413</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -4344,7 +4384,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
@@ -4356,7 +4396,7 @@
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <f t="shared" si="1"/>
-        <v>45416</v>
+        <v>45415</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>9</v>
@@ -4368,7 +4408,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f>A27+7</f>
-        <v>45419</v>
+        <v>45418</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>5</v>
@@ -4380,7 +4420,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
@@ -4392,7 +4432,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
-        <v>45421</v>
+        <v>45420</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -4404,7 +4444,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
-        <v>45422</v>
+        <v>45421</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>8</v>
@@ -4416,7 +4456,7 @@
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <f t="shared" si="1"/>
-        <v>45423</v>
+        <v>45422</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>9</v>
@@ -4428,7 +4468,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f>A32+7</f>
-        <v>45426</v>
+        <v>45425</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>5</v>
@@ -4440,7 +4480,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
-        <v>45427</v>
+        <v>45426</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -4452,7 +4492,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
-        <v>45428</v>
+        <v>45427</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -4464,7 +4504,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
-        <v>45429</v>
+        <v>45428</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>8</v>
@@ -4476,7 +4516,7 @@
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <f t="shared" si="1"/>
-        <v>45430</v>
+        <v>45429</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>9</v>
@@ -4488,7 +4528,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f>A37+7</f>
-        <v>45433</v>
+        <v>45432</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>5</v>
@@ -4500,7 +4540,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
-        <v>45434</v>
+        <v>45433</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
@@ -4512,7 +4552,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
-        <v>45435</v>
+        <v>45434</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
@@ -4524,7 +4564,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
-        <v>45436</v>
+        <v>45435</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -4536,7 +4576,7 @@
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <f t="shared" si="1"/>
-        <v>45437</v>
+        <v>45436</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>9</v>
@@ -4548,7 +4588,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>A42+7</f>
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>5</v>
@@ -4560,7 +4600,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
@@ -4572,7 +4612,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
@@ -4584,7 +4624,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
-        <v>45443</v>
+        <v>45442</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>8</v>
@@ -4596,7 +4636,7 @@
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <f t="shared" si="1"/>
-        <v>45444</v>
+        <v>45443</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>9</v>
@@ -4739,6 +4779,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101000C472AF8BDC6E94CB50238BF34082F88" ma:contentTypeVersion="8" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="f198d95722e477b15d7d95b85e300c14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a2551efb-ecb3-4774-9f86-1762d0b834c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ca12752b0acae48360302887cea9ec5" ns2:_="">
     <xsd:import namespace="a2551efb-ecb3-4774-9f86-1762d0b834c4"/>
@@ -4910,22 +4965,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7272419-58E1-46E2-B7BF-B295147BCBFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D334DAC-4390-472D-AE5D-BE5A01C30DD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{956D989A-F67D-4B21-883C-E8182866DE9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4941,21 +4998,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D334DAC-4390-472D-AE5D-BE5A01C30DD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7272419-58E1-46E2-B7BF-B295147BCBFA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>